--- a/meta/Metadata 1.1.1.xlsx
+++ b/meta/Metadata 1.1.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gwilll\Docs\SDGs\Myanmar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74667E5A-0AB3-4184-AEC3-FBD3199B228F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7AC3FB-2E7F-4033-B055-FA0BE0C3BA7E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
   <si>
     <t>1. Indicator information</t>
   </si>
@@ -170,6 +170,9 @@
   </si>
   <si>
     <t>မြန်မာ</t>
+  </si>
+  <si>
+    <t>["National"]</t>
   </si>
 </sst>
 </file>
@@ -572,7 +575,7 @@
   <dimension ref="A1:K64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -837,7 +840,9 @@
       <c r="A41" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="8"/>
+      <c r="B41" s="8" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="64" spans="6:11" x14ac:dyDescent="0.55000000000000004">
       <c r="F64" s="3"/>

--- a/meta/Metadata 1.1.1.xlsx
+++ b/meta/Metadata 1.1.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gwilll\Docs\SDGs\Myanmar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7AC3FB-2E7F-4033-B055-FA0BE0C3BA7E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8A3389-14A0-4785-8382-EF9CB2FE2554}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -172,7 +172,7 @@
     <t>မြန်မာ</t>
   </si>
   <si>
-    <t>["National"]</t>
+    <t>National</t>
   </si>
 </sst>
 </file>
@@ -575,7 +575,7 @@
   <dimension ref="A1:K64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
